--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3414.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3414.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.324664876293473</v>
+        <v>1.614229559898376</v>
       </c>
       <c r="B1">
-        <v>1.875051720559632</v>
+        <v>4.238815307617188</v>
       </c>
       <c r="C1">
-        <v>3.48263804777705</v>
+        <v>3.576089859008789</v>
       </c>
       <c r="D1">
-        <v>5.235670118183248</v>
+        <v>1.797138094902039</v>
       </c>
       <c r="E1">
-        <v>1.126694527607307</v>
+        <v>1.041212558746338</v>
       </c>
     </row>
   </sheetData>
